--- a/medicine/Psychotrope/Fuji_Gotemba/Fuji_Gotemba.xlsx
+++ b/medicine/Psychotrope/Fuji_Gotemba/Fuji_Gotemba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fuji Gotemba (富士御殿場 en japonais) est une distillerie située dans la région de Chūbu au Japon.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La distillerie de Fuji Gotemba a été fondée en 1972 par la société Kirin Seagram Ltd. Elle est construite à 620 mètres d’altitude, au pied du mont Fuji dans la ville de Gotemba. La température moyenne annuelle de près de 13 °C, ainsi que les sources d’eau du Mont Fuji, sont les éléments qui caractérisent la région[1],[2].
-Le Single Grain 25 ans Small Batch de la distillerie a reçu le World Whiskies Award 2016 du meilleur whisky de grain au monde[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La distillerie de Fuji Gotemba a été fondée en 1972 par la société Kirin Seagram Ltd. Elle est construite à 620 mètres d’altitude, au pied du mont Fuji dans la ville de Gotemba. La température moyenne annuelle de près de 13 °C, ainsi que les sources d’eau du Mont Fuji, sont les éléments qui caractérisent la région,.
+Le Single Grain 25 ans Small Batch de la distillerie a reçu le World Whiskies Award 2016 du meilleur whisky de grain au monde.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Blend
 Fuji Gotemba Kirin Whisky Fujisanroku 50%
